--- a/basedatos.xlsx
+++ b/basedatos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teito\OneDrive\Proyectos Python\TJMS_SIAT_BOT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos Trabajo\FACT_SIAT_PY\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -41,22 +41,22 @@
     <t>457A089F27D4437958353F80544173908200E02523116B9AF9B919E74</t>
   </si>
   <si>
-    <t>460D972E15A64C5A69F416606D0434959614CFED247FDD65EE6A19E74</t>
-  </si>
-  <si>
-    <t>21B06597F5324601A574894DD4562DB2F2D900B4827D82456BAA19E74</t>
-  </si>
-  <si>
     <t>21B06597F5324601A57AF19A69BD1317A4F8023B267D82456BAA19E74</t>
   </si>
   <si>
-    <t>45D6DEA7126A77C529FAD7D6AC457D55248937B66027556D9E0C19E74</t>
-  </si>
-  <si>
     <t>457A089F27D457E628F7CF9B9EBA7DBFA34EDE9A921C42B0186239E74</t>
   </si>
   <si>
     <t>tipo</t>
+  </si>
+  <si>
+    <t>460D972E15A64C5A69F416606D043  4959614CFED247FDD65EE6A19E74</t>
+  </si>
+  <si>
+    <t>21B06597F5324601A574894DD4  562DB2F2D900B4827D82456BAA19E74</t>
+  </si>
+  <si>
+    <t>45D6DEA7126A77C529FAD7D6  AC457D55248937B66027556D9E0C19E74</t>
   </si>
 </sst>
 </file>
@@ -378,7 +378,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD11"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -403,7 +403,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -434,7 +434,7 @@
         <v>1442021</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E3" s="1">
         <v>2</v>
@@ -451,7 +451,7 @@
         <v>10132</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E4" s="1">
         <v>2</v>
@@ -468,7 +468,7 @@
         <v>10133</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E5" s="1">
         <v>2</v>
@@ -485,7 +485,7 @@
         <v>15923981</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E6" s="1">
         <v>2</v>
@@ -502,7 +502,7 @@
         <v>346116</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E7" s="1">
         <v>2</v>
